--- a/new_data/New_order.xlsx
+++ b/new_data/New_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAAAA Zy master\2 Term\DM\Group Assignment\Github\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57EE406-0E69-47B1-A0F3-3D514080E097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19A78B3-1E56-415D-A349-92CFE4861E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-1760" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order_Details" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>order_id</t>
   </si>
@@ -37,9 +37,6 @@
     <t>order_status</t>
   </si>
   <si>
-    <t>recipient_name</t>
-  </si>
-  <si>
     <t>recipient_phone_number</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Processed</t>
   </si>
   <si>
-    <t xml:space="preserve">Alexis Cuphus </t>
-  </si>
-  <si>
     <t>679-103-8009</t>
   </si>
   <si>
@@ -116,6 +110,18 @@
   </si>
   <si>
     <t>PIN9154</t>
+  </si>
+  <si>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Cuphus</t>
+  </si>
+  <si>
+    <t>recipient_first_name</t>
+  </si>
+  <si>
+    <t>recipient_last_name</t>
   </si>
 </sst>
 </file>
@@ -540,18 +546,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,68 +569,74 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="7">
         <v>45351</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="K2" s="9">
         <v>45343</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="9">
         <v>45343</v>
       </c>
     </row>
@@ -636,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48694139-FA36-4FB6-9E43-D87E757D873C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,24 +660,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="14">
         <v>14</v>
@@ -672,13 +685,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="14">
         <v>17</v>
@@ -686,13 +699,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="14">
         <v>14</v>
@@ -700,13 +713,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="14">
         <v>14</v>
@@ -714,13 +727,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="14">
         <v>11</v>
